--- a/medicine/Sexualité et sexologie/Alan_Davis_(dessinateur_français)/Alan_Davis_(dessinateur_français).xlsx
+++ b/medicine/Sexualité et sexologie/Alan_Davis_(dessinateur_français)/Alan_Davis_(dessinateur_français).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alan_Davis_(dessinateur_fran%C3%A7ais)</t>
+          <t>Alan_Davis_(dessinateur_français)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Pailler, dit Alan Davis, est un dessinateur français de bandes dessinées né en 1952. Durant les années 1970, il a illustré - en signant Pailler - diverses histoires humoristiques dans le journal Pilote, sur des scénarios de Coucho. Alan Davis est devenu son principal pseudonyme quand il s'est orienté vers le registre érotique et pornographique. Il a aussi utilisé les noms de Jo Cordès[1] et Jean Pignard.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Pailler, dit Alan Davis, est un dessinateur français de bandes dessinées né en 1952. Durant les années 1970, il a illustré - en signant Pailler - diverses histoires humoristiques dans le journal Pilote, sur des scénarios de Coucho. Alan Davis est devenu son principal pseudonyme quand il s'est orienté vers le registre érotique et pornographique. Il a aussi utilisé les noms de Jo Cordès et Jean Pignard.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alan_Davis_(dessinateur_fran%C3%A7ais)</t>
+          <t>Alan_Davis_(dessinateur_français)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alan_Davis_(dessinateur_fran%C3%A7ais)</t>
+          <t>Alan_Davis_(dessinateur_français)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,22 +553,129 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sous le nom de Pailler
-Déconan le barbaresque (scénario : Coucho)[2]
+          <t>Sous le nom de Pailler</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Déconan le barbaresque (scénario : Coucho)
 Chutes à tiroir (scénario : Coucho)
-Liz et Beth (tome 5, Le club des sens ; scénario : Henri Filippini)
-Sous le nom d'Alan Davis
-Billie et Betty (4 tomes)
+Liz et Beth (tome 5, Le club des sens ; scénario : Henri Filippini)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alan_Davis_(dessinateur_français)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alan_Davis_(dessinateur_fran%C3%A7ais)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous le nom d'Alan Davis</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Billie et Betty (4 tomes)
 Au plaisir des dames
 Viol avec préméditation (tome 1 seulement ; la suite de l'histoire n'est jamais parue)
-Le Clan (3 tomes + une histoire inédite en album, publiée dans la revue Bédéadult)
-Sous le nom de Jo Cordès
-Charlie Logan
+Le Clan (3 tomes + une histoire inédite en album, publiée dans la revue Bédéadult)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alan_Davis_(dessinateur_français)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alan_Davis_(dessinateur_fran%C3%A7ais)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous le nom de Jo Cordès</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Charlie Logan
 Iris (3 tomes)
 Les fils de la violence
-Les chroniques d'Astup
-Sous le nom de Jean Pignar
-La semaine de sucette (avec Manuel Lizay)
+Les chroniques d'Astup</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alan_Davis_(dessinateur_français)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alan_Davis_(dessinateur_fran%C3%A7ais)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous le nom de Jean Pignar</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La semaine de sucette (avec Manuel Lizay)
 Les Pieds niqueurs (2 tomes) (avec Manuel Lizay)</t>
         </is>
       </c>
